--- a/backend/output_timetables/sem7_DSAI_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem7_DSAI_post_mid_timetable.xlsx
@@ -9,6 +9,11 @@
   <sheets>
     <sheet name="Timetable" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Verification" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="LTPSC_Compliance" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Executive_Summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Course_Summary" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Distribution_Logic" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="All_Courses_Overview" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -769,7 +774,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -816,7 +821,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -894,6 +899,4404 @@
       <c r="I4" t="inlineStr">
         <is>
           <t>--</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Required LTPSC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Required (L/T/P)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Section A (L/T/P)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Section B (L/T/P)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures Status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials Status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Labs Status</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Overall Compliance</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Branch: DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Generation Date</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-12-13 16:20</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Timetable generation timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Course Statistics</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Total Courses</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Core: 0, Elective: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LTPSC Compliance</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Compliance Rate</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0/2 courses fully compliant</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Room Utilization</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rooms Used</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0/35</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Utilization: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Schedule Density</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Time Slot Utilization</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>8.6%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>A: 17.1%, B: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Quality Assessment</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Overall Quality</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[WARN] NEEDS REVIEW</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Score: 26.6/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Practicals/Week</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Half Semester</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Inclusion Reasoning</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Cybersecurity techniques</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Reinforcement learning</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Dibyajyothi</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>health care data analytics</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Girish G N</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Generative AI</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Chinmayananda A</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Hands on CMOS Analog and RF Circuit design</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>User Interactions and Experience Design</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Sandesh Phalke</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Quantum AI+ Generative Models on Quantum Platform</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Aswath Babu</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Devlops and its Applications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Shirshendu Layek</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Agentic AI</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Sunil Saumya</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Information Retrieval</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Krishnendu</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Cloud SRE and Security</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Malay Kumar</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CS474</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Software Defined Network</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Jagadeesha R Bhat</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>AI for Cybersecurity</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Finance and Accounting</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Anushree</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Operation Research</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Anand barangi</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Energy Efficient Neural Network</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Jagadish D N</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>DS498</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Mini Project</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0-0-0-8-2</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Animesh Roy, Pramod Yelmewad</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Scheduled In</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Logic Applied</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>In Pre-Mid</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>In Post-Mid</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cybersecurity techniques</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Reinforcement learning</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>7</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>health care data analytics</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>7</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Generative AI</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hands on CMOS Analog and RF Circuit design</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>7</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>User Interactions and Experience Design</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>7</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Quantum AI+ Generative Models on Quantum Platform</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>7</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Devlops and its Applications</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>7</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Agentic AI</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>7</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Information Retrieval</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>7</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cloud SRE and Security</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>7</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CS474</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Software Defined Network</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>7</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>AI for Cybersecurity</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>7</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Finance and Accounting</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>7</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Operation Research</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>7</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Energy Efficient Neural Network</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4-credit + Post mid-sem='No' -&gt; BOTH Pre-Mid &amp; Post-Mid</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>7</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>DS498</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Mini Project</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Both (non-2-credit with Post mid-sem='No')</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2-credit + Post mid-sem='No' -&gt; Pre-Mid Only</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Half Semester</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cybersecurity techniques</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Reinforcement learning</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Dibyajyothi</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>health care data analytics</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Girish G N</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Generative AI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Chinmayananda A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hands on CMOS Analog and RF Circuit design</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>User Interactions and Experience Design</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Sandesh Phalke</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Quantum AI+ Generative Models on Quantum Platform</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Aswath Babu</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Devlops and its Applications</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Shirshendu Layek</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Agentic AI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>7</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Sunil Saumya</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Information Retrieval</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Krishnendu</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cloud SRE and Security</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Malay Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CS474</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Software Defined Network</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>7</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Jagadeesha R Bhat</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>AI for Cybersecurity</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>7</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Finance and Accounting</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Anushree</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Operation Research</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>7</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Anand barangi</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Energy Efficient Neural Network</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>7</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Jagadish D N</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>DS498</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Mini Project</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>7</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Animesh Roy, Pramod Yelmewad</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Cybersecurity techniques</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>7</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Reinforcement learning</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>7</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Dibyajyothi</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>health care data analytics</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>7</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Girish G N</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Generative AI</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>7</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Chinmayananda A</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Hands on CMOS Analog and RF Circuit design</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>7</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>DE351</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>User Interactions and Experience Design</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>7</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Sandesh Phalke</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Quantum AI+ Generative Models on Quantum Platform</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>7</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Aswath Babu</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Devlops and its Applications</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>7</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Shirshendu Layek</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Agentic AI</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>7</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Sunil Saumya</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Information Retrieval</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>7</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Krishnendu</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Cloud SRE and Security</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>7</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Malay Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CS474</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Software Defined Network</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>7</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Jagadeesha R Bhat</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>AI for Cybersecurity</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>7</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Finance and Accounting</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>7</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Anushree</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Operation Research</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>7</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Anand barangi</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Energy Efficient Neural Network</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>7</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Jagadish D N</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>DS498</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Mini Project</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>7</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Post-Mid</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Animesh Roy, Pramod Yelmewad</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem7_DSAI_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem7_DSAI_post_mid_timetable.xlsx
@@ -3437,7 +3437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -3596,7 +3596,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -3659,7 +3659,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -3722,7 +3722,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -3785,7 +3785,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -4037,7 +4037,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -4100,7 +4100,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -4226,7 +4226,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -4289,7 +4289,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -4415,7 +4415,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -4541,7 +4541,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -4604,7 +4604,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -4667,7 +4667,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -4730,7 +4730,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -4793,7 +4793,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -4830,2652 +4830,6 @@
         </is>
       </c>
       <c r="M22" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>7</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>7</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>7</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>7</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>7</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>7</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>7</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>7</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>7</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>7</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>7</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>7</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>7</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>7</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>7</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>7</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>7</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>7</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>7</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>7</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>7</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>7</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>7</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>7</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>7</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>7</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>7</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>7</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>7</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>7</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>7</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>7</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>7</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>7</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>7</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>7</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>7</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>7</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>7</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>7</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>7</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>7</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
         <is>
           <t>CS473</t>
         </is>

--- a/backend/output_timetables/sem7_DSAI_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem7_DSAI_post_mid_timetable.xlsx
@@ -9,15 +9,15 @@
   <sheets>
     <sheet name="Timetable" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Verification" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Classroom_Allocation" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="LTPSC_Compliance" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Executive_Summary" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Course_Summary" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Distribution_Logic" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="All_Courses_Overview" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Basket_Allocation" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Basket_Courses" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Classroom_Utilization" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="LTPSC_Compliance" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Executive_Summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Course_Summary" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Distribution_Logic" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="All_Courses_Overview" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Basket_Allocation" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Basket_Courses" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Classroom_Utilization" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Classroom_Allocation" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="Section_A" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="Basket_Course_Allocations" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,17 +480,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -505,24 +505,24 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -544,118 +544,118 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7 (Tutorial)</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B8 (Tutorial)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B6 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B7 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -672,30 +672,94 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
@@ -707,622 +771,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Basket Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Lecture Slots</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Tutorial Slot</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total Courses in Basket</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Common for Both Sections</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Tue 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Tue 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Tue 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Wed 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Wed 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>4</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Wed 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>4</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Wed 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>4</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>EC462</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Mon 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>5</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>EC465</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Mon 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>5</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Mon 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>PH454</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Mon 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>DE451</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Mon 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>5</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>CS470</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Tue 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>4</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>DS102</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Tue 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>4</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>MA452</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Tue 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>4</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>EC463</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Tue 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>4</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2583,13 +2031,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2600,6 +2048,4601 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Conflict</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Basket</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>session_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>7</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>7</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>7</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>7</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>7</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>7</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>7</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>7</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>7</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>7</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>7</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>7</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>7</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>7</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>7</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>7</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>7</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>7</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>7</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>7</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>7</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>7</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>7</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>7</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>7</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>7</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>7</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>7</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>7</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>7</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>7</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>7</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>7</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>7</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>7</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>7</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>7</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>7</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>7</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>7</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>7</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>7</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>7</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>7</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>7</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I66" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>7</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>7</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
           <t>Time Slot</t>
         </is>
       </c>
@@ -2632,17 +6675,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2657,24 +6700,24 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2696,118 +6739,118 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7 (Tutorial)</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B8 (Tutorial)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B6 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B7 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -2824,30 +6867,94 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
@@ -2902,7 +7009,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
     </row>
@@ -2919,7 +7026,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -2936,7 +7043,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -2953,7 +7060,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C003</t>
         </is>
       </c>
     </row>
@@ -2970,7 +7077,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C101</t>
         </is>
       </c>
     </row>
@@ -2987,7 +7094,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C004, C101</t>
         </is>
       </c>
     </row>
@@ -3004,7 +7111,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C004</t>
         </is>
       </c>
     </row>
@@ -3019,7 +7126,11 @@
           <t>EC462</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C003, C004, C102</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3032,7 +7143,11 @@
           <t>EC465</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C003, C004</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3045,7 +7160,11 @@
           <t>ASD352</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3058,7 +7177,11 @@
           <t>PH454</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3071,7 +7194,11 @@
           <t>DE451</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>C003, C101</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3084,7 +7211,11 @@
           <t>CS470</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>C004, C101, C203</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3097,7 +7228,11 @@
           <t>DS102</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>C003, C004, L403</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3110,7 +7245,11 @@
           <t>MA452</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>C002, C003, L404</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3123,7 +7262,11 @@
           <t>EC463</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>C001, C002, L405</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3437,1415 +7580,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Semester</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Branch</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Section</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Day</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Room Type</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Capacity</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Facilities</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Conflict</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Allocation Type</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Basket</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>room</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>course</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>7</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>7</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>7</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>7</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>7</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>DS456</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>7</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>EC456</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>7</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>DS401</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>7</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>7</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>7</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>7</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>7</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>CS457</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>7</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>DS458</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>7</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>CS468</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>7</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>CS473</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5144,7 +7878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5213,7 +7947,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-18 11:33</t>
+          <t>2026-01-19 12:24</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -5277,7 +8011,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0/36</t>
+          <t>0/16</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -5299,12 +8033,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14.3%</t>
+          <t>11.1%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 28.6%, B: 0.0%</t>
+          <t>A: 22.2%, B: 0.0%</t>
         </is>
       </c>
     </row>
@@ -5326,7 +8060,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 28.3/100</t>
+          <t>Score: 27.3/100</t>
         </is>
       </c>
     </row>
@@ -5335,7 +8069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6588,7 +9322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7427,7 +10161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9034,7 +11768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9208,11 +11942,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>EC462, EC465, ASD352, PH454, DE451</t>
+          <t>EC462, EC465, ASD352, PH454</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -9272,6 +12006,587 @@
       <c r="I5" t="inlineStr">
         <is>
           <t>Semester 7</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slots</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Both Sections</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DS456</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DS401</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CS457</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DS458</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CS473</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Tue 09:00-10:30, Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EC462</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Mon 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>EC465</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Mon 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Mon 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Mon 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CS470</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DS102</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem7_DSAI_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem7_DSAI_post_mid_timetable.xlsx
@@ -2148,7 +2148,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -2219,11 +2219,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="b">
         <v>0</v>
       </c>
@@ -2239,7 +2235,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -2279,15 +2275,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2348,12 +2348,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I5" t="b">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -2406,22 +2406,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I6" t="b">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -2474,22 +2474,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I7" t="b">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -2542,20 +2542,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I8" t="b">
         <v>0</v>
       </c>
@@ -2571,7 +2575,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -2581,7 +2585,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -2606,22 +2610,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I9" t="b">
@@ -2639,7 +2643,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -2649,7 +2653,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -2679,12 +2683,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2707,7 +2711,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -2747,17 +2751,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I11" t="b">
@@ -2775,7 +2779,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -2815,17 +2819,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I12" t="b">
@@ -2843,7 +2847,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -2956,7 +2960,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2979,7 +2983,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -3027,11 +3031,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="b">
         <v>0</v>
       </c>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -3087,15 +3087,19 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I16" t="b">
         <v>0</v>
       </c>
@@ -3111,7 +3115,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -3141,27 +3145,27 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I17" t="b">
@@ -3174,17 +3178,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>DS456</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -3209,12 +3213,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -3224,7 +3228,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3242,17 +3246,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>EC456</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -3277,25 +3281,29 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I19" t="b">
         <v>0</v>
       </c>
@@ -3306,17 +3314,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>ELECTIVE_B6</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>DS401</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -3341,27 +3349,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -3374,22 +3382,22 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3414,20 +3422,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I21" t="b">
         <v>0</v>
       </c>
@@ -3438,22 +3450,22 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3478,7 +3490,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -3488,12 +3500,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I22" t="b">
@@ -3506,22 +3518,22 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3546,22 +3558,22 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I23" t="b">
@@ -3574,22 +3586,22 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3609,27 +3621,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -3642,17 +3654,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>CS457</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -3677,25 +3689,29 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I25" t="b">
         <v>0</v>
       </c>
@@ -3706,17 +3722,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>DS458</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -3741,7 +3757,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -3751,12 +3767,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -3774,17 +3790,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>CS468</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -3809,7 +3825,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -3819,19 +3835,15 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="b">
         <v>0</v>
       </c>
@@ -3842,17 +3854,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>ELECTIVE_B7</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>CS473</t>
+          <t>EC456</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -3877,27 +3889,27 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I28" t="b">
@@ -3910,17 +3922,17 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B6</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -3945,29 +3957,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="b">
         <v>0</v>
       </c>
@@ -3978,22 +3986,22 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -4013,22 +4021,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -4046,22 +4054,22 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -4081,25 +4089,29 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I31" t="b">
         <v>0</v>
       </c>
@@ -4110,22 +4122,22 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -4145,22 +4157,22 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -4178,22 +4190,22 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -4213,12 +4225,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -4228,14 +4240,10 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="b">
         <v>0</v>
       </c>
@@ -4246,17 +4254,17 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -4281,27 +4289,27 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -4314,17 +4322,17 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -4349,27 +4357,27 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -4382,17 +4390,17 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -4417,12 +4425,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -4432,10 +4440,14 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I36" t="b">
         <v>0</v>
       </c>
@@ -4446,17 +4458,17 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B7</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -4481,27 +4493,27 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -4519,17 +4531,17 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -4549,22 +4561,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -4582,22 +4594,22 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -4617,27 +4629,27 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -4650,22 +4662,22 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -4685,12 +4697,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -4700,14 +4712,10 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="b">
         <v>0</v>
       </c>
@@ -4718,22 +4726,22 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -4753,22 +4761,22 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -4786,22 +4794,22 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>EC463</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -4821,27 +4829,27 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I42" t="b">
@@ -4854,17 +4862,17 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -4889,12 +4897,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -4922,7 +4930,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -4932,7 +4940,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -4957,27 +4965,27 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -4990,17 +4998,17 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -5025,25 +5033,29 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I45" t="b">
         <v>0</v>
       </c>
@@ -5054,17 +5066,17 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -5089,27 +5101,27 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -5122,22 +5134,22 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5157,27 +5169,27 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I47" t="b">
@@ -5195,17 +5207,17 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5225,12 +5237,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -5240,7 +5252,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -5263,17 +5275,17 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5293,12 +5305,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -5311,11 +5323,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="b">
         <v>0</v>
       </c>
@@ -5331,17 +5339,17 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5361,12 +5369,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -5379,7 +5387,11 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I50" t="b">
         <v>0</v>
       </c>
@@ -5390,22 +5402,22 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>EC463</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5425,29 +5437,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="b">
         <v>0</v>
       </c>
@@ -5463,17 +5471,17 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5493,22 +5501,22 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -5531,17 +5539,17 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5561,22 +5569,22 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -5599,17 +5607,17 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5629,25 +5637,29 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I54" t="b">
         <v>0</v>
       </c>
@@ -5663,17 +5675,17 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5693,27 +5705,27 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I55" t="b">
@@ -5731,12 +5743,12 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -5761,27 +5773,27 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I56" t="b">
@@ -5799,17 +5811,17 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>EC462</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5829,12 +5841,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -5844,14 +5856,10 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="b">
         <v>0</v>
       </c>
@@ -5867,17 +5875,17 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>EC465</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5897,22 +5905,22 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -5935,17 +5943,17 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5965,12 +5973,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -5980,10 +5988,14 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I59" t="b">
         <v>0</v>
       </c>
@@ -5999,17 +6011,17 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>PH454</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6029,27 +6041,27 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I60" t="b">
@@ -6067,17 +6079,17 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>DE451</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6097,27 +6109,27 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I61" t="b">
@@ -6130,17 +6142,17 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -6165,29 +6177,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="b">
         <v>0</v>
       </c>
@@ -6198,17 +6206,17 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -6233,12 +6241,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -6248,12 +6256,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I63" t="b">
@@ -6266,17 +6274,17 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -6301,27 +6309,27 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I64" t="b">
@@ -6334,17 +6342,17 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>EC463</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -6374,7 +6382,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -6417,7 +6425,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6442,7 +6450,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -6485,7 +6493,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6510,7 +6518,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -6553,7 +6561,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6578,7 +6586,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -6617,7 +6625,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -7009,7 +7017,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -7026,7 +7034,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -7043,7 +7051,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -7060,7 +7068,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C002, C003</t>
+          <t>C001, C101</t>
         </is>
       </c>
     </row>
@@ -7077,7 +7085,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C001, C101</t>
+          <t>C004, C101</t>
         </is>
       </c>
     </row>
@@ -7094,7 +7102,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C004, C101</t>
+          <t>C003, C004</t>
         </is>
       </c>
     </row>
@@ -7111,7 +7119,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C002, C004</t>
+          <t>C002, C003</t>
         </is>
       </c>
     </row>
@@ -7128,7 +7136,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C003, C004, C102</t>
+          <t>C002, C004, L402, L403</t>
         </is>
       </c>
     </row>
@@ -7145,7 +7153,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C003, C004</t>
+          <t>C001, C002, C003, L403, L404</t>
         </is>
       </c>
     </row>
@@ -7162,7 +7170,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001, C002, C101, L404, L405</t>
         </is>
       </c>
     </row>
@@ -7179,7 +7187,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C001, C101, C102, L405, L407</t>
         </is>
       </c>
     </row>
@@ -7196,7 +7204,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C003, C101</t>
+          <t>C003, C004, C101, L407, L408</t>
         </is>
       </c>
     </row>
@@ -7213,7 +7221,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C004, C101, C203</t>
+          <t>C004, C305</t>
         </is>
       </c>
     </row>
@@ -7230,7 +7238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C003, C004, L403</t>
+          <t>C003</t>
         </is>
       </c>
     </row>
@@ -7247,7 +7255,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C002, C003, L404</t>
+          <t>C002, L402</t>
         </is>
       </c>
     </row>
@@ -7264,7 +7272,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C001, C002, L405</t>
+          <t>C001, L403</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem7_DSAI_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem7_DSAI_post_mid_timetable.xlsx
@@ -537,7 +537,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -549,27 +549,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -645,27 +645,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>ELECTIVE_B8 (Tutorial)</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B9 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -682,17 +682,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2037,7 +2037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N68"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2073,47 +2073,57 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Room Type</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Capacity</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Facilities</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Conflict</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Allocation Type</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Basket</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>room</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>course</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>session_type</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>conflict</t>
         </is>
       </c>
     </row>
@@ -2143,46 +2153,54 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>ELECTIVE_B6</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>DS456</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2211,42 +2229,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>ELECTIVE_B6</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>C001</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>EC456</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2275,46 +2301,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>ELECTIVE_B6</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>DS401</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2343,46 +2377,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
       <c r="M5" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>EC462</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2411,46 +2449,54 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
       <c r="M6" t="inlineStr">
         <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>EC465</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2479,46 +2525,54 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
       <c r="M7" t="inlineStr">
         <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>ASD352</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2547,46 +2601,54 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
       <c r="M8" t="inlineStr">
         <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>PH454</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2615,46 +2677,54 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
       <c r="M9" t="inlineStr">
         <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>DE451</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2683,46 +2753,54 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M10" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>CS457</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2751,46 +2829,50 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M11" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
           <t>DS458</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2819,46 +2901,54 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>CS468</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M12" t="inlineStr">
         <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>CS468</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2887,46 +2977,54 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M13" t="inlineStr">
         <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>CS473</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2955,46 +3053,54 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>ELECTIVE_B6</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M14" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
           <t>DS456</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -3023,42 +3129,50 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>ELECTIVE_B6</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>C001</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>EC456</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -3087,46 +3201,54 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>ELECTIVE_B6</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M16" t="inlineStr">
         <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
           <t>DS401</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -3155,46 +3277,54 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>ELECTIVE_B9</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
       <c r="M17" t="inlineStr">
         <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
           <t>CS470</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -3223,46 +3353,54 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>ELECTIVE_B9</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M18" t="inlineStr">
         <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
           <t>DS102</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -3291,46 +3429,54 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>ELECTIVE_B9</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
       <c r="M19" t="inlineStr">
         <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
           <t>MA452</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -3359,46 +3505,54 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>ELECTIVE_B9</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
       <c r="M20" t="inlineStr">
         <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
           <t>EC463</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -3427,46 +3581,50 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
       <c r="M21" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>EC462</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -3495,46 +3653,54 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
       <c r="M22" t="inlineStr">
         <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
           <t>EC465</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -3563,46 +3729,54 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
       <c r="M23" t="inlineStr">
         <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
           <t>ASD352</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -3631,46 +3805,54 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>PH454</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
       <c r="M24" t="inlineStr">
         <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
           <t>PH454</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -3699,46 +3881,54 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
       <c r="H25" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
       <c r="M25" t="inlineStr">
         <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
           <t>DE451</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -3767,46 +3957,54 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS456</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>ELECTIVE_B6</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M26" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
           <t>DS456</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -3835,42 +4033,50 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>EC456</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>ELECTIVE_B6</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>C001</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>EC456</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -3899,46 +4105,54 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>DS401</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>ELECTIVE_B6</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M28" t="inlineStr">
         <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
           <t>DS401</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -3967,42 +4181,54 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M29" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
           <t>CS457</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -4031,46 +4257,50 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M30" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
           <t>DS458</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -4099,46 +4329,54 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M31" t="inlineStr">
         <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
           <t>CS468</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -4167,46 +4405,54 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M32" t="inlineStr">
         <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
           <t>CS473</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -4235,42 +4481,54 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS457</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M33" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
           <t>CS457</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="O33" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -4299,46 +4557,50 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>DS458</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M34" t="inlineStr">
         <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
           <t>DS458</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -4367,46 +4629,54 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>CS468</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M35" t="inlineStr">
         <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
           <t>CS468</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -4435,46 +4705,54 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS473</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>ELECTIVE_B7</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M36" t="inlineStr">
         <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
           <t>CS473</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -4503,46 +4781,54 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>EC462</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M37" t="inlineStr">
         <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
           <t>EC462</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="O37" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -4571,46 +4857,54 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC465</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M38" t="inlineStr">
         <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
           <t>EC465</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="O38" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -4639,46 +4933,54 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M39" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
           <t>ASD352</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="O39" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -4707,42 +5009,54 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>PH454</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M40" t="inlineStr">
         <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
           <t>PH454</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="O40" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -4771,46 +5085,54 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>DE451</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>ELECTIVE_B8</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M41" t="inlineStr">
         <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
           <t>DE451</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="O41" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -4839,46 +5161,54 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>ELECTIVE_B9</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
       <c r="M42" t="inlineStr">
         <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
           <t>CS470</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr">
+      <c r="O42" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4907,46 +5237,54 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>ELECTIVE_B9</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M43" t="inlineStr">
         <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
           <t>DS102</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="O43" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4975,46 +5313,54 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>MA452</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>ELECTIVE_B9</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
       <c r="M44" t="inlineStr">
         <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
           <t>MA452</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="O44" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -5043,46 +5389,54 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>ELECTIVE_B9</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
       <c r="M45" t="inlineStr">
         <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
           <t>EC463</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="O45" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -5111,46 +5465,54 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>ELECTIVE_B9</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M46" t="inlineStr">
         <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
           <t>CS470</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="O46" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -5179,46 +5541,54 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>ELECTIVE_B9</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M47" t="inlineStr">
         <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
           <t>DS102</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="O47" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -5247,46 +5617,54 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>ELECTIVE_B9</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M48" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
           <t>MA452</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="O48" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -5315,1318 +5693,54 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC463</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>ELECTIVE_B9</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M49" t="inlineStr">
         <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
           <t>EC463</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>7</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>EC462</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>7</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>EC465</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>7</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>7</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>PH454</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>7</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>DE451</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>7</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>EC462</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>7</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>EC465</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>7</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>7</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>PH454</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>7</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>DE451</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>7</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>EC462</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>7</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>EC465</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>7</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>7</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>PH454</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>7</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>DE451</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>7</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>CS470</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>7</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>DS102</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>7</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>MA452</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>7</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B9</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>EC463</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
+      <c r="P49" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6740,7 +5854,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B8</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -6752,27 +5866,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B8</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B8</t>
         </is>
       </c>
     </row>
@@ -6836,7 +5950,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -6848,27 +5962,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B6 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B7 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>ELECTIVE_B8 (Tutorial)</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B6 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B7 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B9 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -6885,17 +5999,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B9</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -7017,7 +6131,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -7051,7 +6165,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -7068,7 +6182,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C001, C101</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -7085,7 +6199,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C004, C101</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -7102,7 +6216,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C003, C004</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -7119,7 +6233,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C002, C003</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -7136,7 +6250,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C002, C004, L402, L403</t>
+          <t>C001, C102</t>
         </is>
       </c>
     </row>
@@ -7153,7 +6267,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C001, C002, C003, L403, L404</t>
+          <t>C002, C104</t>
         </is>
       </c>
     </row>
@@ -7170,7 +6284,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C001, C002, C101, L404, L405</t>
+          <t>C102, C202</t>
         </is>
       </c>
     </row>
@@ -7187,7 +6301,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C001, C101, C102, L405, L407</t>
+          <t>C104, C203</t>
         </is>
       </c>
     </row>
@@ -7204,7 +6318,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C003, C004, C101, L407, L408</t>
+          <t>C203, C204</t>
         </is>
       </c>
     </row>
@@ -7221,7 +6335,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C004, C305</t>
+          <t>C002, C102</t>
         </is>
       </c>
     </row>
@@ -7238,7 +6352,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C101, C104</t>
         </is>
       </c>
     </row>
@@ -7255,7 +6369,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C002, L402</t>
+          <t>C102, C202</t>
         </is>
       </c>
     </row>
@@ -7272,7 +6386,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C001, L403</t>
+          <t>C104, C203</t>
         </is>
       </c>
     </row>
@@ -7553,7 +6667,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lectures: 7</t>
+          <t>Lectures: 8</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -7847,7 +6961,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1/0/0</t>
+          <t>2/1/0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -7955,7 +7069,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-19 12:24</t>
+          <t>2026-01-26 01:05</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -8019,7 +7133,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0/16</t>
+          <t>0/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -8041,12 +7155,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11.1%</t>
+          <t>13.3%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 22.2%, B: 0.0%</t>
+          <t>A: 26.7%, B: 0.0%</t>
         </is>
       </c>
     </row>
@@ -8068,7 +7182,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 27.3/100</t>
+          <t>Score: 28.0/100</t>
         </is>
       </c>
     </row>
@@ -11935,26 +11049,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>EC462, EC465, ASD352, PH454</t>
+          <t>EC462, EC465, ASD352, PH454, DE451</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -11980,17 +11094,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Fri</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Tue</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -12028,7 +11142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12331,16 +11445,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mon 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -12366,16 +11480,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mon 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -12401,16 +11515,16 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mon 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -12436,16 +11550,16 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fri 09:00-10:30, Fri 10:30-12:00</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mon 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -12461,26 +11575,26 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ELECTIVE_B9</t>
+          <t>ELECTIVE_B8</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CS470</t>
+          <t>DE451</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -12501,17 +11615,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DS102</t>
+          <t>CS470</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
+          <t>Tue 15:30-17:00, Thu 15:30-17:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -12536,17 +11650,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MA452</t>
+          <t>DS102</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
+          <t>Tue 15:30-17:00, Thu 15:30-17:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -12571,17 +11685,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>EC463</t>
+          <t>MA452</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fri 10:30-12:00, Fri 13:00-14:30</t>
+          <t>Tue 15:30-17:00, Thu 15:30-17:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -12593,6 +11707,41 @@
         </is>
       </c>
       <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B9</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>EC463</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Tue 15:30-17:00, Thu 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>

--- a/backend/output_timetables/sem7_DSAI_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem7_DSAI_post_mid_timetable.xlsx
@@ -2382,15 +2382,19 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
@@ -2406,7 +2410,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -3282,17 +3286,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -3310,7 +3314,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -3358,19 +3362,15 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="b">
         <v>0</v>
       </c>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -3434,12 +3434,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -3538,7 +3538,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -3586,15 +3586,19 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
@@ -3610,7 +3614,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -4786,17 +4790,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -4814,7 +4818,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -4862,12 +4866,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -4890,7 +4894,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -4966,7 +4970,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -5024,7 +5028,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -5042,7 +5046,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -5118,7 +5122,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -5166,17 +5170,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -5194,7 +5198,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -5242,19 +5246,15 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="b">
         <v>0</v>
       </c>
@@ -5270,7 +5270,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -5318,12 +5318,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -5346,7 +5346,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -5422,7 +5422,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -5470,17 +5470,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -5498,7 +5498,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -5546,19 +5546,15 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="b">
         <v>0</v>
       </c>
@@ -5574,7 +5570,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -5622,12 +5618,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -5650,7 +5646,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -5708,7 +5704,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -5726,7 +5722,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -6250,7 +6246,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C001, C102</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -6267,7 +6263,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C002, C104</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -6284,7 +6280,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C102, C202</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -6301,7 +6297,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C104, C203</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -6318,7 +6314,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C203, C204</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -6335,7 +6331,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C002, C102</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -6352,7 +6348,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C101, C104</t>
+          <t>C001</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6365,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C102, C202</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -6386,7 +6382,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C104, C203</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -7069,7 +7065,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 01:05</t>
+          <t>2026-01-26 12:46</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">

--- a/backend/output_timetables/sem7_DSAI_post_mid_timetable.xlsx
+++ b/backend/output_timetables/sem7_DSAI_post_mid_timetable.xlsx
@@ -2158,17 +2158,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -2234,15 +2234,19 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J3" t="b">
         <v>0</v>
       </c>
@@ -2258,7 +2262,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -2306,12 +2310,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -2334,7 +2338,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -2382,17 +2386,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -2410,7 +2414,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -2458,12 +2462,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2486,7 +2490,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -2544,7 +2548,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -2562,7 +2566,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -2696,7 +2700,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -2714,7 +2718,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -2762,17 +2766,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -2790,7 +2794,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -2838,15 +2842,19 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
@@ -2862,7 +2870,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -2910,12 +2918,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2938,7 +2946,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -3014,7 +3022,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -3062,17 +3070,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -3090,7 +3098,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -3138,15 +3146,19 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
@@ -3162,7 +3174,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -3210,12 +3222,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -3238,7 +3250,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -3286,17 +3298,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -3314,7 +3326,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -3362,15 +3374,19 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
@@ -3386,7 +3402,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -3434,12 +3450,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -3462,7 +3478,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -3538,7 +3554,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -3586,17 +3602,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -3614,7 +3630,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -3662,12 +3678,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -3690,7 +3706,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -3748,7 +3764,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -3766,7 +3782,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -3900,7 +3916,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -3918,7 +3934,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -3966,17 +3982,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -3994,7 +4010,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -4042,15 +4058,19 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
@@ -4066,7 +4086,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -4114,12 +4134,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -4142,7 +4162,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -4190,17 +4210,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -4218,7 +4238,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -4266,15 +4286,19 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J30" t="b">
         <v>0</v>
       </c>
@@ -4290,7 +4314,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -4338,12 +4362,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -4366,7 +4390,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -4442,7 +4466,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -4490,17 +4514,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -4518,7 +4542,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -4566,15 +4590,19 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J34" t="b">
         <v>0</v>
       </c>
@@ -4590,7 +4618,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -4638,12 +4666,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -4666,7 +4694,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -4742,7 +4770,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -4790,17 +4818,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -4818,7 +4846,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -4866,12 +4894,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -4894,7 +4922,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -4952,7 +4980,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -4970,7 +4998,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -5104,7 +5132,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -5122,7 +5150,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -5170,17 +5198,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -5198,7 +5226,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -5246,15 +5274,19 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J43" t="b">
         <v>0</v>
       </c>
@@ -5270,7 +5302,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -5318,12 +5350,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -5346,7 +5378,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -5422,7 +5454,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -5470,17 +5502,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -5498,7 +5530,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -5546,15 +5578,19 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J47" t="b">
         <v>0</v>
       </c>
@@ -5570,7 +5606,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -5618,12 +5654,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -5646,7 +5682,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -5722,7 +5758,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -6127,7 +6163,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -6144,7 +6180,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -6161,7 +6197,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -6178,7 +6214,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -6195,7 +6231,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -6212,7 +6248,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -6229,7 +6265,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6282,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -6263,7 +6299,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -6280,7 +6316,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -6314,7 +6350,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101, C202</t>
         </is>
       </c>
     </row>
@@ -6331,7 +6367,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -6348,7 +6384,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -6365,7 +6401,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -6382,7 +6418,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -7065,7 +7101,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 12:46</t>
+          <t>2026-01-26 21:32</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
